--- a/va_facility_data_2025-02-20/Waynesville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waynesville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Waynesville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waynesville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2e97b3daf6214e38b772d114b4e73b8c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7ef121a3e2864a9c9d2594ee60bad9a7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8ae56172ef1c49e5950a5d5799651c5d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7b27e0c9c4224d59ad19961dd97b9716"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7f006cfebf4d4f5e944491f3c32ec5fd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6d0f611926d84d4a8dbe97d1a3538269"/>
   </x:sheets>
 </x:workbook>
 </file>
